--- a/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
+++ b/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
@@ -24,14 +24,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>발주서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t>${data.ROWNUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ORDER_COMP_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.OUTSIDE_ORDER_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.CONTROL_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.OUTSIDE_HOPE_DUE_DT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.DRAWING_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ITEM_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.MATERIAL_DETAIL}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.OUTSIDE_UNIT_AMT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 발 주 서 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>발주처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>담당자</t>
@@ -39,58 +75,66 @@
   </si>
   <si>
     <t>발주일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 주 금 액 :</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>업체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>발주번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>관리번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>요망납기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>도면번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>규격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>소재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>발주량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,18 +142,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발주금액 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.NOTE}</t>
-  </si>
-  <si>
-    <t>${data.ROWNUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ORDER_COMP_NM}</t>
+    <t>${info.ORDER_COMP_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.ORDER_STAFF_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SUM_AMT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.OUTSIDE_NOTE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,43 +162,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${data.CONTROL_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.OUTSIDE_HOPE_DUE_DT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.DRAWING_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ITEM_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.SIZE_TXT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.MATERIAL_DETAIL}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.OUTSIDE_ORDER_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.OUTSIDE_UNIT_AMT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_COMP_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_STAFF_NM}</t>
+    <t>${info.ORDER_NUM_SUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.OUTSIDE_UNIT_SUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.DATE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,10 +178,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +199,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="20"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -191,12 +208,38 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="18"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -279,51 +322,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,171 +691,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N6"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="14" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="11" max="12" width="9" customWidth="1"/>
+    <col min="13" max="14" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
+    <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="15"/>
       <c r="H3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="11">
-        <f>$M6</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6">
-        <f>SUM($K5)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ref="L6:M6" si="0">SUM($K5)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="5"/>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
+++ b/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
@@ -62,116 +62,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>발주처</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 주 금 액 :</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요망납기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도면번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주량</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.ORDER_COMP_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.ORDER_STAFF_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.SUM_AMT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.OUTSIDE_NOTE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.OUTSIDE_ORDER_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.ORDER_NUM_SUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.OUTSIDE_UNIT_SUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.DATE}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 발 주 서 </t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주처</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주일자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발 주 금 액 :</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요망납기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>도면번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>품명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>규격</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>소재</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주량</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.SIZE_TXT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_COMP_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_STAFF_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.SUM_AMT}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.OUTSIDE_NOTE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.OUTSIDE_ORDER_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_NUM_SUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.OUTSIDE_UNIT_SUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.DATE}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -180,7 +180,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -262,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -322,15 +322,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -353,7 +344,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,52 +354,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,15 +684,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -714,92 +703,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -825,47 +814,47 @@
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="20" t="s">
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M10" s="16"/>
+      <c r="M10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
+++ b/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
@@ -24,15 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>${data.ROWNUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ORDER_COMP_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>${data.OUTSIDE_ORDER_NUM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${info.ORDER_COMP_NM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${info.ORDER_STAFF_NM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,24 +142,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${data.OUTSIDE_ORDER_NUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_NUM_SUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.OUTSIDE_UNIT_SUM}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${info.DATE}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 발 주 서 </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ROW_NUM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.OUTSIDE_COMP_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.CONTROL_PART_QTY}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.COMP_NM}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.TOTAL}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.TOTAL}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${info.CONTROL_PART_QTY}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -380,6 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,9 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -684,7 +688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -703,138 +709,138 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="B2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="I3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="M5" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -845,11 +851,11 @@
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
       <c r="K6" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N6" s="9"/>
     </row>

--- a/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
+++ b/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>${data.OUTSIDE_ORDER_NUM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${info.ORDER_STAFF_NM}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,40 +365,43 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +688,7 @@
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -709,52 +708,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="20"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="22"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -799,10 +796,10 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -826,36 +823,36 @@
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="12" t="s">
         <v>36</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="N6" s="9"/>
     </row>

--- a/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
+++ b/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\workspace-jmes\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF7D2B4-DFA8-4B5E-B996-84A2EBEBB9B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="5100" yWindow="4995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +87,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>요망납기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>도면번호</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -172,12 +169,16 @@
   <si>
     <t>${info.CONTROL_PART_QTY}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외주납기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -365,43 +366,43 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,11 +685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,7 +699,7 @@
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="18.625" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -708,50 +709,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="B2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="20"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -767,39 +768,39 @@
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -817,42 +818,42 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23" t="s">
         <v>35</v>
+      </c>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="N6" s="9"/>
     </row>

--- a/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
+++ b/src/main/resources/excelTemplate/outsourcing_order_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\workspace-jmes\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF7D2B4-DFA8-4B5E-B996-84A2EBEBB9B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="4995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="4995" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -263,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -286,43 +285,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -332,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,49 +322,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,12 +632,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -698,7 +643,7 @@
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="18.625" customWidth="1"/>
@@ -709,50 +654,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="23"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -826,10 +771,10 @@
       <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -840,22 +785,22 @@
       <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M10" s="8"/>
